--- a/biology/Botanique/Succisa/Succisa.xlsx
+++ b/biology/Botanique/Succisa/Succisa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Succisa est un genre de plantes herbacées de la famille des Dipsacaceae selon la classification classique de Cronquist (1981)[2], de la famille des Caprifoliaceae selon la classification phylogénétique. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Succisa est un genre de plantes herbacées de la famille des Dipsacaceae selon la classification classique de Cronquist (1981), de la famille des Caprifoliaceae selon la classification phylogénétique. 
 En Europe on ne rencontre qu'une seule espèce :
 Succisa pratensis Moench , 1784 - la succise des prés</t>
         </is>
@@ -512,24 +524,26 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (25 septembre 2017)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (25 septembre 2017) :
 Succisa pinnatifida Lange
 Succisa pratensis Moench
 Succisa trichotocephala Baksay
-Selon GRIN            (25 septembre 2017)[4] :
+Selon GRIN            (25 septembre 2017) :
 Succisa pratensis Moench
-Selon ITIS      (25 septembre 2017)[5] :
+Selon ITIS      (25 septembre 2017) :
 Succisa pratensis Moench
-Selon NCBI  (25 septembre 2017)[6] :
+Selon NCBI  (25 septembre 2017) :
 Succisa pratensis
-Selon The Plant List            (25 septembre 2017)[7] :
+Selon The Plant List            (25 septembre 2017) :
 Succisa kamerunensis Engler ex Mildbraed
 Succisa pinnatifida Lange
 Succisa pratensis Moench
 Succisa trichotocephala Baksay
-Selon Tropicos                                           (25 septembre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (25 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Succisa australis (Wulfen) Rchb.
 Succisa kamerunensis Engler ex Mildbraed
 Succisa pinnatifida Lange
